--- a/src/test/java/runnerFiles/TestCases.xlsx
+++ b/src/test/java/runnerFiles/TestCases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srikant\New-workspace\Automation\src\test\java\runnerFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\HRM\OrangeHRM_Automation\src\test\java\runnerFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E23E2A-60FD-43F5-A126-56C4BF7C2C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202A5CB8-6173-429D-BB00-DABA397A3507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -45,7 +45,22 @@
     <t>Validate user can successfully login</t>
   </si>
   <si>
-    <t>Write few test cases below</t>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Validate Admin Module</t>
+  </si>
+  <si>
+    <t>Validate user management</t>
+  </si>
+  <si>
+    <t>Validate Job Module</t>
+  </si>
+  <si>
+    <t>Validate Oragnization Module</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -363,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,8 +416,8 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -410,7 +425,41 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/runnerFiles/TestCases.xlsx
+++ b/src/test/java/runnerFiles/TestCases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srikant\New-workspace\Automation\src\test\java\runnerFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\HRM\OrangeHRM_Automation\src\test\java\runnerFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E23E2A-60FD-43F5-A126-56C4BF7C2C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAF2856-03FE-4C93-848B-C0F8F470DC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25680" yWindow="795" windowWidth="23730" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <t>Validate user can successfully login</t>
   </si>
   <si>
-    <t>Write few test cases below</t>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,15 +401,7 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
